--- a/data/trans_dic/P25A_10_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A_10_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por varices en las piernas</t>
+          <t>Población con limitación por varices en las piernas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -637,42 +662,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>3,22%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,32%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10,65%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 11,36</t>
+          <t>0,0; 18,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,27</t>
+          <t>0,0; 10,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 10,82</t>
+          <t>0,0; 11,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 11,23</t>
+          <t>1,81; 15,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 8,76</t>
+          <t>0,0; 12,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 5,89</t>
+          <t>0,0; 15,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 9,11</t>
+          <t>6,41; 30,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 5,74</t>
+          <t>0,86; 8,6</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 11,97</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,33</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4,66; 20,72</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3,92%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,07</t>
+          <t>0,0; 5,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,0; 3,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,73</t>
+          <t>0,0; 2,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,07</t>
+          <t>0,46; 6,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,76</t>
+          <t>1,4; 7,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 10,17</t>
+          <t>0,68; 5,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,49</t>
+          <t>1,78; 7,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,64</t>
+          <t>2,62; 10,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,07</t>
+          <t>1,33; 4,8</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 3,26</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 4,45</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,02; 6,8</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>2,12%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,5</t>
+          <t>0,0; 4,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,68</t>
+          <t>0,0; 5,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,36</t>
+          <t>0,0; 3,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,66</t>
+          <t>0,0; 3,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 4,12</t>
+          <t>1,0; 6,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,06</t>
+          <t>0,49; 4,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,42</t>
+          <t>0,0; 3,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,72</t>
+          <t>1,69; 8,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,14</t>
+          <t>0,88; 4,38</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 3,25</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 2,74</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 4,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,59%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,25%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,8%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,37%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 3,04</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 3,41</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 2,35</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 3,71</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,11; 5,72</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 4,16</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,43; 4,83</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 11,04</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 3,86</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 3,07</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1,06; 3,03</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3,05; 6,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por varices en las piernas (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4862</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1915</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6284</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8664</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4031</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>35071</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8664</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9550</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5945</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>41355</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19386</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12252</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20503</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2540; 22009</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14847</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18391</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13506; 65214</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2325; 23128</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3074; 26455</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24434</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18106; 80431</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6367</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2710</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3344</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10523</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>16907</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8780</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15329</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>29165</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>23274</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>11490</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18673</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>39689</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 21885</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13808</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 11753</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2381; 32614</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6501; 32596</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2578; 22772</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6689; 28365</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12961; 53454</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>11883; 42916</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3917; 24652</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>9564; 34498</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>20434; 68746</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4045</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1811</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2155</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11532</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5465</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3650</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17140</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16089</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>9510</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5462</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>19295</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14461</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14362</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9110</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11373</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4272; 25738</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1672; 14970</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11329</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6740; 34179</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6707; 33229</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3524; 20369</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1680; 16461</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8965; 37062</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>10924</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11617</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>18963</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>37102</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>18934</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>23010</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>81376</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>48026</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>30550</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>30080</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>100338</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2792; 26987</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4209; 26054</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1769; 18537</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7481; 38855</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>21768; 59073</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9749; 34956</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>11763; 39740</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>54287; 121930</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>30031; 74262</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>17661; 49302</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>17048; 48901</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>65609; 148385</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
